--- a/data/trans_orig/Q33-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.18175345355894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.158323299755086</v>
+        <v>7.158323299755089</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.459569790596075</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.548044895164542</v>
+        <v>7.558856225154706</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.203860497794096</v>
+        <v>7.20051101606605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.017412893307714</v>
+        <v>7.038883271124356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.018612049113551</v>
+        <v>7.023348139796127</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.308928746350551</v>
+        <v>7.300805493992416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.839019194172947</v>
+        <v>6.848862240224501</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.854113242092647</v>
+        <v>6.857540719704977</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.896872096215988</v>
+        <v>6.904925149886857</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.468997369231052</v>
+        <v>7.472631119618061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.068487453190332</v>
+        <v>7.07669975903303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.984322115004267</v>
+        <v>6.984691700049653</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.005619770621998</v>
+        <v>6.99849327070554</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.795114723547361</v>
+        <v>7.801625823618241</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.530666116897505</v>
+        <v>7.521301585617265</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.341846542896493</v>
+        <v>7.348414902755519</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.293554363626</v>
+        <v>7.281918059029584</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.589594283873693</v>
+        <v>7.586585331855022</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.212225655884875</v>
+        <v>7.213833328289716</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.202922471777688</v>
+        <v>7.202799254182408</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.128877007255847</v>
+        <v>7.133524412630222</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.667966218984801</v>
+        <v>7.662079595240218</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.305071710245898</v>
+        <v>7.321223280090465</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.223927634678615</v>
+        <v>7.233638294611252</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.175264217755769</v>
+        <v>7.177078146414336</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>7.24210748046043</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>7.28510510916269</v>
+        <v>7.285105109162689</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.276420946539504</v>
+        <v>7.284139594591234</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.320452506785222</v>
+        <v>7.31248330443619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.310520270572506</v>
+        <v>7.301033157951355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.165877790516145</v>
+        <v>7.167457867854283</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.066307058459007</v>
+        <v>7.049081783116974</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.166403475331116</v>
+        <v>7.158141777762862</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.969396472544205</v>
+        <v>6.974507233234229</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.158312867824096</v>
+        <v>7.163757517155664</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.200942843537314</v>
+        <v>7.203426938493283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.270188375162304</v>
+        <v>7.272083431686119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.163412379177544</v>
+        <v>7.167206051892742</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.205443456779864</v>
+        <v>7.206012092821272</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.50182771630447</v>
+        <v>7.505651811630326</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.595021271861962</v>
+        <v>7.590719127082616</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.512003926735368</v>
+        <v>7.519779318738687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.429823933049598</v>
+        <v>7.437485876674845</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.304111853456673</v>
+        <v>7.304136826892839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.425521528297095</v>
+        <v>7.410337729648718</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.197504637806907</v>
+        <v>7.196281125660079</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.370101956142229</v>
+        <v>7.374588733357025</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.366290610549019</v>
+        <v>7.377652219673531</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.460071739779366</v>
+        <v>7.460863834618904</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.32521056575075</v>
+        <v>7.318447341570321</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.37626251888816</v>
+        <v>7.370546391314846</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>7.340047740370098</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>7.006759505371196</v>
+        <v>7.006759505371197</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.552302600786331</v>
+        <v>7.53459485835974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.309029884412818</v>
+        <v>7.307242632478341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.338991317572897</v>
+        <v>7.335620205150219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.97091720184904</v>
+        <v>6.958065617915536</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.191271966079643</v>
+        <v>7.197697515605565</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.14815363485822</v>
+        <v>7.140948930999983</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.150241527173811</v>
+        <v>7.151698587848726</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.824583518327115</v>
+        <v>6.826160987155037</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.408858270554292</v>
+        <v>7.383525284039988</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.265452805451823</v>
+        <v>7.262398284503308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.265801779259757</v>
+        <v>7.256936127516841</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.926082849536901</v>
+        <v>6.91937945875708</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.747710691836359</v>
+        <v>7.73299960400538</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.630850859046061</v>
+        <v>7.618108034947904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.509708063430755</v>
+        <v>7.517020813166989</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.215278968388003</v>
+        <v>7.209881753574225</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.428348241883686</v>
+        <v>7.418417669360386</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.405372999076925</v>
+        <v>7.397653747869266</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.361283729615428</v>
+        <v>7.35980867307708</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.051805739153338</v>
+        <v>7.06272615715171</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.553095654400818</v>
+        <v>7.544835530782267</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.466100371921716</v>
+        <v>7.475787564990238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.406304217432278</v>
+        <v>7.403681380416424</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.09230701899087</v>
+        <v>7.08945081304551</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>6.983672349543808</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>6.959107769068762</v>
+        <v>6.959107769068763</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>7.407866924261439</v>
@@ -1101,7 +1101,7 @@
         <v>7.074388354213998</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.010146304999522</v>
+        <v>7.010146304999521</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.328145530279548</v>
+        <v>7.331395097098195</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.011122275672876</v>
+        <v>7.013652165214646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.022066773329187</v>
+        <v>7.002314586847422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.912597103146226</v>
+        <v>6.925816517354386</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.247891090934527</v>
+        <v>7.261093081436472</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.65671848771295</v>
+        <v>6.656058504559513</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.835974410015611</v>
+        <v>6.818677967811282</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.820772105832017</v>
+        <v>6.831158632405343</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.331385263382197</v>
+        <v>7.326069043132195</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.890310364264362</v>
+        <v>6.876445788800936</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.971335626021246</v>
+        <v>6.965166469766295</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.906137377829147</v>
+        <v>6.907476094881457</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.552187200117576</v>
+        <v>7.541099441887719</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.288574908756646</v>
+        <v>7.302058433381967</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.311550747203674</v>
+        <v>7.307981888142541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.209883407110479</v>
+        <v>7.212875478319204</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.46918040595515</v>
+        <v>7.461925707818599</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.968940292613491</v>
+        <v>6.969012396755345</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.144573496047803</v>
+        <v>7.129524653733103</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.086877977494852</v>
+        <v>7.110175282820665</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.482218694651017</v>
+        <v>7.476230047757082</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.09781412671441</v>
+        <v>7.087278205955784</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.183175801177606</v>
+        <v>7.186584028802501</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.107232181427264</v>
+        <v>7.110008953291571</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>7.566456488626251</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>6.571159661793967</v>
+        <v>6.571159661793964</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>7.605680972451782</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.419552315510202</v>
+        <v>7.414103556015702</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.178853022740914</v>
+        <v>7.149879131373303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.432073019265782</v>
+        <v>7.42800618834364</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.710358270617167</v>
+        <v>6.706582043428624</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.427057647173951</v>
+        <v>7.425523013222058</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.874116348792791</v>
+        <v>6.865141266104356</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.457858701002237</v>
+        <v>7.456975884537453</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.477082350214559</v>
+        <v>6.473780768351121</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.478872420471329</v>
+        <v>7.484951559992321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7.065021859461553</v>
+        <v>7.08245059861376</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.48240077175627</v>
+        <v>7.473686225756184</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.612880411814789</v>
+        <v>6.60526666367808</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.789850082016009</v>
+        <v>7.789869997438768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.545257466409474</v>
+        <v>7.517399686416596</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.641260319942419</v>
+        <v>7.642165106616945</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.941951505259364</v>
+        <v>6.934295422314812</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.775367683448764</v>
+        <v>7.7779181348695</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.27666671804521</v>
+        <v>7.242717585918797</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.665202950754194</v>
+        <v>7.664674739461955</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.676269651813312</v>
+        <v>6.670948222082838</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.738800269608777</v>
+        <v>7.734395759849936</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.32898537048872</v>
+        <v>7.348969825137219</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.629336061305417</v>
+        <v>7.627140344247656</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.768934715144692</v>
+        <v>6.761281113557732</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>7.506827544146224</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.045651237240697</v>
+        <v>7.045651237240698</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>7.23442250941934</v>
@@ -1361,7 +1361,7 @@
         <v>7.173053438277246</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>6.81685033023824</v>
+        <v>6.816850330238239</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>7.413767839413297</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.481025209522675</v>
+        <v>7.481714974593431</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.24938000167037</v>
+        <v>7.245548111619607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.336969490867071</v>
+        <v>7.360093869500608</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.932023526455104</v>
+        <v>6.934978006083917</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>7.098701143080996</v>
+        <v>7.081184094017903</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.072461357801694</v>
+        <v>7.06296048947914</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>7.005205809799306</v>
+        <v>6.98883219641802</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>6.690068050297015</v>
+        <v>6.686977011855275</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>7.327560481308494</v>
+        <v>7.322652580905103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7.198984825802591</v>
+        <v>7.203913291277111</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7.219109611068258</v>
+        <v>7.216391268975668</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>6.850938520150596</v>
+        <v>6.850891602646728</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.697345218052318</v>
+        <v>7.697701288184398</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.527496223806546</v>
+        <v>7.541001698937904</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.637110937917738</v>
+        <v>7.655592338532873</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.158884443432031</v>
+        <v>7.147222220550344</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.375568820164207</v>
+        <v>7.369055151869948</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.368863568079963</v>
+        <v>7.372557475623887</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>7.337724913893902</v>
+        <v>7.338220901553751</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>6.937310513695463</v>
+        <v>6.946647369464565</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.502816773531043</v>
+        <v>7.502269609913177</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.419975427642749</v>
+        <v>7.409976189683215</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7.447058100272144</v>
+        <v>7.45124646680998</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>7.014272731619853</v>
+        <v>7.011442616504581</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>7.650865540090908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.011057858217918</v>
+        <v>7.011057858217916</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>7.341505871431909</v>
@@ -1497,7 +1497,7 @@
         <v>7.448012809858865</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>6.899553560584756</v>
+        <v>6.899553560584755</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>7.466830566304442</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.510207956012219</v>
+        <v>7.511600992558913</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.26403783245765</v>
+        <v>7.274738067187343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.535814821025172</v>
+        <v>7.540585754232604</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.905809977948889</v>
+        <v>6.908901855718519</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.242301680096612</v>
+        <v>7.257437373698707</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.109069557959635</v>
+        <v>7.124788853474648</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.348800910572597</v>
+        <v>7.34921740730981</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.810174199679898</v>
+        <v>6.806281322618403</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.402641916828265</v>
+        <v>7.408693398587677</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7.220713083726307</v>
+        <v>7.222035286370187</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7.473068493578174</v>
+        <v>7.479145478745069</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>6.885795074416635</v>
+        <v>6.888038925927942</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.679542107041312</v>
+        <v>7.679274293020845</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.449605845639633</v>
+        <v>7.454230925315418</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.759814524587116</v>
+        <v>7.765987785956368</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.115513606185006</v>
+        <v>7.108158078263128</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.423098153231889</v>
+        <v>7.43879951209614</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.304909882771602</v>
+        <v>7.311780641507672</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.549230244298688</v>
+        <v>7.551611284063843</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.978345834657057</v>
+        <v>6.981060744405679</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.529469790296919</v>
+        <v>7.526187985898446</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7.354393500735478</v>
+        <v>7.357334639578893</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7.615345898788864</v>
+        <v>7.622485157591805</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>7.018467924621364</v>
+        <v>7.020634319540759</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>7.590976530603022</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.466128387012003</v>
+        <v>7.466128387012001</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>7.599958493138939</v>
@@ -1633,7 +1633,7 @@
         <v>7.335211020922605</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>7.348213750625241</v>
+        <v>7.348213750625242</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>7.554450866625096</v>
@@ -1645,7 +1645,7 @@
         <v>7.459385340365631</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>7.406035822479226</v>
+        <v>7.406035822479225</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.417592467273046</v>
+        <v>7.411604048074238</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.404888055269804</v>
+        <v>7.40833485717662</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.502660179994407</v>
+        <v>7.509866591481615</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.403663371789076</v>
+        <v>7.403645456698032</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.50655996046422</v>
+        <v>7.50360822339748</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>7.203815176929484</v>
+        <v>7.21246699628139</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>7.254037272630577</v>
+        <v>7.25482840680625</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>7.294551614812718</v>
+        <v>7.293608074740419</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>7.494241018667048</v>
+        <v>7.496225667258655</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7.332063962209452</v>
+        <v>7.33332439175485</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7.404287174600651</v>
+        <v>7.398490414365285</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>7.367042658417147</v>
+        <v>7.368225321573257</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.591442293078824</v>
+        <v>7.596183706143041</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.587947495735456</v>
+        <v>7.585503068142115</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.661731607432201</v>
+        <v>7.667851109029558</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.522748943664313</v>
+        <v>7.520616177014964</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>7.686777988503174</v>
+        <v>7.684461098012184</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.380522953999768</v>
+        <v>7.378404218770219</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>7.407448282206619</v>
+        <v>7.412393028981109</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>7.403942031882079</v>
+        <v>7.401528654085121</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>7.618975168337083</v>
+        <v>7.623707230763658</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7.459919378035183</v>
+        <v>7.452475953197485</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7.511244359160476</v>
+        <v>7.510708718621791</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>7.44484041538644</v>
+        <v>7.448016583228443</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>7.469681629182796</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.171609758941642</v>
+        <v>7.171609758941643</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>7.393940889714315</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.507751500798789</v>
+        <v>7.501545819401818</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.351484614242954</v>
+        <v>7.348080717137474</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.427578909365111</v>
+        <v>7.429776422630228</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.134491728576791</v>
+        <v>7.134292228001399</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>7.351807384166651</v>
+        <v>7.349702317614367</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.138467889316953</v>
+        <v>7.139202596470057</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.209223813660476</v>
+        <v>7.205129782490546</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>7.007164067321241</v>
+        <v>7.00894822466296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.438774241780708</v>
+        <v>7.439050611063082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7.257182759718003</v>
+        <v>7.251904070779761</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7.329624074769298</v>
+        <v>7.325830274141139</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>7.080758728333312</v>
+        <v>7.07751399885814</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.584901169156474</v>
+        <v>7.583430976396508</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.442422788229515</v>
+        <v>7.433905748207124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.513297049604887</v>
+        <v>7.513309078178795</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.212493283957881</v>
+        <v>7.212354350399616</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.437348171779035</v>
+        <v>7.434273096222162</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.225936860754294</v>
+        <v>7.224909955104544</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.296722681857783</v>
+        <v>7.292046489607381</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.081105956009015</v>
+        <v>7.079221785134852</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.494042364423814</v>
+        <v>7.49376500174118</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7.320273634158676</v>
+        <v>7.315797227096517</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7.389945286953462</v>
+        <v>7.385780676299289</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>7.133948857335257</v>
+        <v>7.131881588794891</v>
       </c>
     </row>
     <row r="31">
